--- a/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="330">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -671,19 +671,13 @@
     <t>max (M)</t>
   </si>
   <si>
-    <t>Fluxes (umol/gdcw/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>MBo10_std2</t>
+    <t>reaction ID</t>
+  </si>
+  <si>
+    <t>vref_mean (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t>vref_std (umol/gCDW/h)</t>
   </si>
   <si>
     <t>enzyme/rxn</t>
@@ -696,9 +690,6 @@
   </si>
   <si>
     <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
   </si>
   <si>
     <t>kinetic mechanism</t>
@@ -1186,7 +1177,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A1:E1 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1315,20 +1306,20 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>212</v>
       </c>
@@ -1339,10 +1330,10 @@
         <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1981,7 +1972,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1991,16 +1982,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2484,7 +2475,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+      <selection pane="topLeft" activeCell="F41" activeCellId="1" sqref="A1:E1 F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2497,13 +2488,13 @@
         <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,70 +3076,70 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="A1:E1 B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="3" width="6.21457489878543"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="5.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="3" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="3" width="5.89068825910931"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="3" width="4.92712550607287"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="3" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="3" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="3" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,10 +3147,10 @@
         <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -3170,13 +3161,13 @@
         <v>1</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
@@ -3186,10 +3177,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
@@ -3201,10 +3192,10 @@
       </c>
       <c r="K3" s="0"/>
       <c r="L3" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
@@ -3214,10 +3205,10 @@
         <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
@@ -3229,10 +3220,10 @@
       </c>
       <c r="K4" s="0"/>
       <c r="L4" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
@@ -3242,10 +3233,10 @@
         <v>61</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
@@ -3256,13 +3247,13 @@
         <v>1</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
@@ -3272,10 +3263,10 @@
         <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
@@ -3287,10 +3278,10 @@
       </c>
       <c r="K6" s="0"/>
       <c r="L6" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -3300,10 +3291,10 @@
         <v>63</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="6" t="s">
@@ -3312,17 +3303,17 @@
       <c r="F7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J7" s="6" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="0"/>
       <c r="L7" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
@@ -3332,10 +3323,10 @@
         <v>64</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
@@ -3346,13 +3337,13 @@
         <v>1</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
@@ -3362,10 +3353,10 @@
         <v>65</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
@@ -3377,10 +3368,10 @@
       </c>
       <c r="K9" s="0"/>
       <c r="L9" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
@@ -3390,10 +3381,10 @@
         <v>66</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
@@ -3405,14 +3396,14 @@
       </c>
       <c r="K10" s="0"/>
       <c r="L10" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N10" s="0"/>
       <c r="O10" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3420,13 +3411,13 @@
         <v>148</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -3446,13 +3437,13 @@
         <v>150</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
@@ -3463,10 +3454,10 @@
       </c>
       <c r="K12" s="0"/>
       <c r="L12" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
@@ -3476,10 +3467,10 @@
         <v>68</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -3491,10 +3482,10 @@
       </c>
       <c r="K13" s="0"/>
       <c r="L13" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
@@ -3504,14 +3495,14 @@
         <v>69</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F14" s="0"/>
       <c r="H14" s="0"/>
@@ -3520,17 +3511,17 @@
         <v>1</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N14" s="0"/>
       <c r="O14" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3538,14 +3529,14 @@
         <v>70</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F15" s="0"/>
       <c r="H15" s="0"/>
@@ -3556,13 +3547,13 @@
         <v>2</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
       <c r="O15" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3570,14 +3561,14 @@
         <v>154</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F16" s="0"/>
       <c r="H16" s="6" t="s">
@@ -3600,14 +3591,14 @@
         <v>155</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F17" s="0"/>
       <c r="H17" s="6" t="s">
@@ -3621,10 +3612,10 @@
       </c>
       <c r="K17" s="0"/>
       <c r="L17" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
@@ -3634,10 +3625,10 @@
         <v>156</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D18" s="0"/>
       <c r="F18" s="0"/>
@@ -3648,10 +3639,10 @@
       </c>
       <c r="K18" s="0"/>
       <c r="L18" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
@@ -3661,13 +3652,13 @@
         <v>158</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F19" s="0"/>
       <c r="H19" s="0"/>
@@ -3677,10 +3668,10 @@
       </c>
       <c r="K19" s="0"/>
       <c r="L19" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
@@ -3690,13 +3681,13 @@
         <v>160</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F20" s="0"/>
       <c r="H20" s="0"/>
@@ -3706,10 +3697,10 @@
       </c>
       <c r="K20" s="0"/>
       <c r="L20" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
@@ -3719,10 +3710,10 @@
         <v>73</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F21" s="0"/>
       <c r="H21" s="0"/>
@@ -3732,10 +3723,10 @@
       </c>
       <c r="K21" s="0"/>
       <c r="L21" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
@@ -3745,10 +3736,10 @@
         <v>74</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F22" s="0"/>
       <c r="H22" s="0"/>
@@ -3758,10 +3749,10 @@
       </c>
       <c r="K22" s="0"/>
       <c r="L22" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
@@ -3771,10 +3762,10 @@
         <v>75</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F23" s="0"/>
       <c r="H23" s="0"/>
@@ -3784,10 +3775,10 @@
       </c>
       <c r="K23" s="0"/>
       <c r="L23" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
@@ -3797,10 +3788,10 @@
         <v>76</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F24" s="0"/>
       <c r="H24" s="0"/>
@@ -3810,10 +3801,10 @@
       </c>
       <c r="K24" s="0"/>
       <c r="L24" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
@@ -3823,10 +3814,10 @@
         <v>77</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F25" s="0"/>
       <c r="H25" s="0"/>
@@ -3835,13 +3826,13 @@
         <v>2</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
@@ -3851,10 +3842,10 @@
         <v>78</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>33</v>
@@ -3866,10 +3857,10 @@
       </c>
       <c r="K26" s="0"/>
       <c r="L26" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
@@ -3879,10 +3870,10 @@
         <v>79</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
@@ -3891,10 +3882,10 @@
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
@@ -3904,10 +3895,10 @@
         <v>80</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
@@ -3916,10 +3907,10 @@
       </c>
       <c r="K28" s="0"/>
       <c r="L28" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
@@ -3929,10 +3920,10 @@
         <v>81</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
@@ -3940,13 +3931,13 @@
         <v>4</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
@@ -3956,10 +3947,10 @@
         <v>82</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
@@ -3968,10 +3959,10 @@
       </c>
       <c r="K30" s="0"/>
       <c r="L30" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
@@ -3981,10 +3972,10 @@
         <v>83</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
@@ -3993,10 +3984,10 @@
       </c>
       <c r="K31" s="0"/>
       <c r="L31" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
@@ -4006,10 +3997,10 @@
         <v>84</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
@@ -4018,10 +4009,10 @@
       </c>
       <c r="K32" s="0"/>
       <c r="L32" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
@@ -4031,10 +4022,10 @@
         <v>85</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
@@ -4043,16 +4034,16 @@
       </c>
       <c r="K33" s="0"/>
       <c r="L33" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4060,10 +4051,10 @@
         <v>86</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
@@ -4072,14 +4063,14 @@
       </c>
       <c r="K34" s="0"/>
       <c r="L34" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="N34" s="0"/>
       <c r="O34" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,10 +4078,10 @@
         <v>87</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
@@ -4099,10 +4090,10 @@
       </c>
       <c r="K35" s="0"/>
       <c r="L35" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N35" s="0"/>
     </row>
@@ -4111,13 +4102,13 @@
         <v>88</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I36" s="6" t="n">
         <v>4</v>
@@ -4129,13 +4120,13 @@
         <v>0</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,16 +4134,16 @@
         <v>89</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J37" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,16 +4151,16 @@
         <v>90</v>
       </c>
       <c r="B38" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="J38" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4191,12 +4182,12 @@
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="A1:E1 E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4472,8 +4463,8 @@
   </sheetPr>
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8750,14 +8741,14 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+      <selection pane="topLeft" activeCell="G40" activeCellId="1" sqref="A1:E1 G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.8825910931174"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9480,15 +9471,15 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="C37" activeCellId="1" sqref="A1:E1 C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -10037,7 +10028,7 @@
   <dimension ref="A2:A35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10234,7 +10225,7 @@
   <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
+      <selection pane="topLeft" activeCell="L29" activeCellId="1" sqref="A1:E1 L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10466,7 +10457,7 @@
   <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="A1:E1 K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10698,14 +10689,14 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="A1:E1 D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0283400809717"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11241,12 +11232,12 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="topLeft" activeCell="D40" activeCellId="1" sqref="A1:E1 D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5708502024291"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>

--- a/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,994 +35,994 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="330">
   <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>putida_v1</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m_glc_D_e</t>
-  </si>
-  <si>
-    <t>m_glc_D_p</t>
-  </si>
-  <si>
-    <t>m_atp_c</t>
-  </si>
-  <si>
-    <t>m_glc_D_c</t>
-  </si>
-  <si>
-    <t>m_adp_c</t>
-  </si>
-  <si>
-    <t>m_pi_c</t>
-  </si>
-  <si>
-    <t>m_g6p_c</t>
-  </si>
-  <si>
-    <t>m_glcn_e</t>
-  </si>
-  <si>
-    <t>m_glcn_p</t>
-  </si>
-  <si>
-    <t>m_glcn_c</t>
-  </si>
-  <si>
-    <t>m_6pgc_c</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_e</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_p</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_6p2dhglcn_c</t>
-  </si>
-  <si>
-    <t>m_nadph_c</t>
-  </si>
-  <si>
-    <t>m_nadp_c</t>
-  </si>
-  <si>
-    <t>m_q8_c</t>
-  </si>
-  <si>
-    <t>m_q8h2_c</t>
-  </si>
-  <si>
-    <t>m_6pgl_c</t>
-  </si>
-  <si>
-    <t>m_co2_c</t>
-  </si>
-  <si>
-    <t>m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>m_r5p_c</t>
-  </si>
-  <si>
-    <t>m_xu5p_D_c</t>
-  </si>
-  <si>
-    <t>m_g3p_c</t>
-  </si>
-  <si>
-    <t>m_s7p_c</t>
-  </si>
-  <si>
-    <t>m_e4p_c</t>
-  </si>
-  <si>
-    <t>m_f6p_c</t>
-  </si>
-  <si>
-    <t>m_2ddg6p_c</t>
-  </si>
-  <si>
-    <t>m_pyr_c</t>
-  </si>
-  <si>
-    <t>m_fdp_c</t>
-  </si>
-  <si>
-    <t>m_dhap_c</t>
-  </si>
-  <si>
-    <t>m_nad_c</t>
-  </si>
-  <si>
-    <t>m_nadh_c</t>
-  </si>
-  <si>
-    <t>m_13dpg_c</t>
-  </si>
-  <si>
-    <t>m_3pg_c</t>
-  </si>
-  <si>
-    <t>m_2pg_c</t>
-  </si>
-  <si>
-    <t>m_pep_c</t>
-  </si>
-  <si>
-    <t>m_pyr_e</t>
-  </si>
-  <si>
-    <t>m_pep_e</t>
-  </si>
-  <si>
-    <t>R_GLCtex</t>
-  </si>
-  <si>
-    <t>R_GLCabcpp</t>
-  </si>
-  <si>
-    <t>R_GLK</t>
-  </si>
-  <si>
-    <t>R_GLCNtex</t>
-  </si>
-  <si>
-    <t>R_GLCNt2rpp</t>
-  </si>
-  <si>
-    <t>R_GNK</t>
-  </si>
-  <si>
-    <t>R_2DHGLCNtex</t>
-  </si>
-  <si>
-    <t>R_2DHGLCNkt_tpp</t>
-  </si>
-  <si>
-    <t>R_2DHGLCK</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH</t>
-  </si>
-  <si>
-    <t>R_GLCDpp</t>
-  </si>
-  <si>
-    <t>R_GAD2ktpp</t>
-  </si>
-  <si>
-    <t>R_G6PDH2</t>
-  </si>
-  <si>
-    <t>R_PGL</t>
-  </si>
-  <si>
-    <t>R_GND</t>
-  </si>
-  <si>
-    <t>R_RPI</t>
-  </si>
-  <si>
-    <t>R_RPE</t>
-  </si>
-  <si>
-    <t>R_TKT1</t>
-  </si>
-  <si>
-    <t>R_TKT2</t>
-  </si>
-  <si>
-    <t>R_TALA</t>
-  </si>
-  <si>
-    <t>R_EDD</t>
-  </si>
-  <si>
-    <t>R_EDA</t>
-  </si>
-  <si>
-    <t>R_PGI</t>
-  </si>
-  <si>
-    <t>R_FBP</t>
-  </si>
-  <si>
-    <t>R_FBA</t>
-  </si>
-  <si>
-    <t>R_TPI</t>
-  </si>
-  <si>
-    <t>R_GAPD</t>
-  </si>
-  <si>
-    <t>R_PGK</t>
-  </si>
-  <si>
-    <t>R_PGM</t>
-  </si>
-  <si>
-    <t>R_ENO</t>
-  </si>
-  <si>
-    <t>R_PYK</t>
-  </si>
-  <si>
-    <t>R_EX_pyr</t>
-  </si>
-  <si>
-    <t>R_EX_pep</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>D-glucose extracellular</t>
-  </si>
-  <si>
-    <t>D-glucose periplasm</t>
-  </si>
-  <si>
-    <t>atp cytoplasm</t>
-  </si>
-  <si>
-    <t>D-glucose cytoplasm</t>
-  </si>
-  <si>
-    <t>adp cytoplasm</t>
-  </si>
-  <si>
-    <t>phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>alpha D-glucose 6 phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-gluconate extracellular</t>
-  </si>
-  <si>
-    <t>D-gluconate periplasm</t>
-  </si>
-  <si>
-    <t>D-gluconate cytoplasm</t>
-  </si>
-  <si>
-    <t>6-phospho-D-gluconate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-Dehydro-D-gluconate extracellular</t>
-  </si>
-  <si>
-    <t>2-Dehydro-D-gluconate periplasm</t>
-  </si>
-  <si>
-    <t>2-Dehydro-D-gluconate cytosol</t>
-  </si>
-  <si>
-    <t>6-phospho-2-Dehydro-D-gluconate cytosol</t>
-  </si>
-  <si>
-    <t>nadph cytoplasm</t>
-  </si>
-  <si>
-    <t>nadp cytoplasm</t>
-  </si>
-  <si>
-    <t>Ubiquinone-8</t>
-  </si>
-  <si>
-    <t>Ubiquinol-8</t>
-  </si>
-  <si>
-    <t>6-phospho D-glucono-1,5-lactone</t>
-  </si>
-  <si>
-    <t>carbon dioxide</t>
-  </si>
-  <si>
-    <t>D-ribulose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>alpha-D-ribose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-xylulose-5-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-glyceraldehyde 3-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>Sedoheptulose-7-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-erythrose-4-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-fructose-6-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>pyruvate cytoplasm</t>
-  </si>
-  <si>
-    <t>D-fructose-1,6-bisphosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>Dehydroxyacetone-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>nad cytoplasm</t>
-  </si>
-  <si>
-    <t>nadh cytoplasm</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glyceroyl-phosphate cytoplasm</t>
-  </si>
-  <si>
-    <t>3-phospho-D-glycerate cytoplasm</t>
-  </si>
-  <si>
-    <t>2-phospho-D-glycerate cytoplasm</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate cytoplasm</t>
-  </si>
-  <si>
-    <t>pyruvate extracellular</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate extracellular</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>Glucose transport via diffusion (extracellular to periplasm)</t>
-  </si>
-  <si>
-    <t>D-glucose transport via ABC system (periplasm)</t>
-  </si>
-  <si>
-    <t>Glucokinase</t>
-  </si>
-  <si>
-    <t>D-gluconate transport via diffusion (extracellular to periplasm)</t>
-  </si>
-  <si>
-    <t>D-gluconate transport via proton symport, reversible (periplasm)</t>
-  </si>
-  <si>
-    <t>Gluconokinase</t>
-  </si>
-  <si>
-    <t>Ketogluconate transport via diffusion (extracellular to periplasm)</t>
-  </si>
-  <si>
-    <t>Ketogluconate transporter</t>
-  </si>
-  <si>
-    <t>dehydroglucokinase</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NAD</t>
-  </si>
-  <si>
-    <t>Phosphogluconate-2-dehydrogenase</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NADP</t>
-  </si>
-  <si>
-    <t>Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
-  </si>
-  <si>
-    <t>Gluconate-2-dehydrogenase periplasm</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate dehydrogenase</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NAD</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NADP</t>
-  </si>
-  <si>
-    <t>PGL</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconolactonase</t>
-  </si>
-  <si>
-    <t>R_GND_NAD</t>
-  </si>
-  <si>
-    <t>Phosphogluconate dehydrogenase</t>
-  </si>
-  <si>
-    <t>R_GND_NADP</t>
-  </si>
-  <si>
-    <t>Ribose-5-phosphate isomerase</t>
-  </si>
-  <si>
-    <t>Ribulose 5-phosphate 3-epimerase</t>
-  </si>
-  <si>
-    <t>Transketolase 1</t>
-  </si>
-  <si>
-    <t>Transketolase 2</t>
-  </si>
-  <si>
-    <t>transaldolase</t>
-  </si>
-  <si>
-    <t>6-Phosphogluconate dehydratase</t>
-  </si>
-  <si>
-    <t>2-dehydro-3-deoxy-phosphogluconate aldolase</t>
-  </si>
-  <si>
-    <t>Glucose-6-phosphate-isomerase</t>
-  </si>
-  <si>
-    <t>Fructose-biphosphatase</t>
-  </si>
-  <si>
-    <t>Fructose-biphosphate-aldolase</t>
-  </si>
-  <si>
-    <t>Triose phosphate isomerase</t>
-  </si>
-  <si>
-    <t>Glyceraldehyde-3-phosphate dehydrogenase</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate kinase</t>
-  </si>
-  <si>
-    <t>Phosphoglycerate mutase</t>
-  </si>
-  <si>
-    <t>Enolase</t>
-  </si>
-  <si>
-    <t>Pyruvate kinase</t>
-  </si>
-  <si>
-    <t>pyruvate exchange reaction</t>
-  </si>
-  <si>
-    <t>phosphoenolpyruvate exchange reaction</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>EC number</t>
-  </si>
-  <si>
-    <t>3.6.3.17</t>
-  </si>
-  <si>
-    <t>2.7.1.2</t>
-  </si>
-  <si>
-    <t>2.7.1.12</t>
-  </si>
-  <si>
-    <t>2.7.1.13</t>
-  </si>
-  <si>
-    <t>1.1.1.43</t>
-  </si>
-  <si>
-    <t>equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
-  </si>
-  <si>
-    <t>equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
-  </si>
-  <si>
-    <t>1.1.1.49</t>
-  </si>
-  <si>
-    <t>3.1.1.31</t>
-  </si>
-  <si>
-    <t>1.1.1.44</t>
-  </si>
-  <si>
-    <t> 5.3.1.6</t>
-  </si>
-  <si>
-    <t>5.1.3.1</t>
-  </si>
-  <si>
-    <t>2.2.2.1</t>
-  </si>
-  <si>
-    <t>2.2.1.2</t>
-  </si>
-  <si>
-    <t> 4.2.1.12</t>
-  </si>
-  <si>
-    <t> 4.1.2.14</t>
-  </si>
-  <si>
-    <t> 5.3.1.9</t>
-  </si>
-  <si>
-    <t> 3.1.3.11</t>
-  </si>
-  <si>
-    <t>used D-fbp</t>
-  </si>
-  <si>
-    <t>4.1.2.13</t>
-  </si>
-  <si>
-    <t>5.3.1.1</t>
-  </si>
-  <si>
-    <t> 1.2.1.12</t>
-  </si>
-  <si>
-    <t>2.7.2.3</t>
-  </si>
-  <si>
-    <t>5.4.2.1</t>
-  </si>
-  <si>
-    <t>4.2.1.11</t>
-  </si>
-  <si>
-    <t>2.7.1.40</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>vref_mean (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>vref_std (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effector</t>
-  </si>
-  <si>
-    <t>positive effector</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>mechanisms_refs</t>
-  </si>
-  <si>
-    <t>subunits_comments1</t>
-  </si>
-  <si>
-    <t>subunits_comments2</t>
-  </si>
-  <si>
-    <t>subunits_refs</t>
-  </si>
-  <si>
-    <t>general_comments</t>
-  </si>
-  <si>
-    <t>diffusion</t>
-  </si>
-  <si>
-    <t>m_glc_D_e m_glc_D_p</t>
-  </si>
-  <si>
-    <t>bigg DB</t>
-  </si>
-  <si>
-    <t>diffusion setting subunits to 1</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>orderedBiTer</t>
-  </si>
-  <si>
-    <t>m_glc_D_p m_atp_c m_adp_c m_pi_c m_glc_D_c</t>
-  </si>
-  <si>
-    <t>assumed subunits</t>
-  </si>
-  <si>
-    <t>same as Laia</t>
-  </si>
-  <si>
-    <t>randomBiBi</t>
-  </si>
-  <si>
-    <t>m_glc_D_e m_atp_c m_adp_c m_g6p_c</t>
-  </si>
-  <si>
-    <t>looks like 1 subunit from metacyc</t>
-  </si>
-  <si>
-    <t>Laia has 2</t>
-  </si>
-  <si>
-    <t>m_glcn_e m_glcn_p</t>
-  </si>
-  <si>
-    <t>UniUni</t>
-  </si>
-  <si>
-    <t>m_glcn_p m_glcn_c</t>
-  </si>
-  <si>
-    <t>Data form E.coli, permease, modelled as massAction</t>
-  </si>
-  <si>
-    <t>m_glcn_c m_atp_c m_adp_c m_6pgc_c</t>
-  </si>
-  <si>
-    <t>m_adp_c, oxidized_glutathione</t>
-  </si>
-  <si>
-    <t>m_2dhglcn_e m_2dhglcn_p</t>
-  </si>
-  <si>
-    <t>2dhglcn_p m_2dhglcn_c</t>
-  </si>
-  <si>
-    <t>permease,modelled as massAction</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m_atp_c  m_2dhglcn_c m_6p2dhglcn_c m_adp_c</t>
-  </si>
-  <si>
-    <t>Laia has 1 and says no data</t>
-  </si>
-  <si>
-    <t>all assumed, no data</t>
-  </si>
-  <si>
-    <t>PGLCNDHPutida</t>
-  </si>
-  <si>
-    <t>m_nad_c m_6p2dhglcn_c m_6pgc_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_6p2dhglcn_c m_6pgc_c m_nadph_c</t>
-  </si>
-  <si>
-    <t>Laia has 4</t>
-  </si>
-  <si>
-    <t>pingpong</t>
-  </si>
-  <si>
-    <t>m_glc_D_p m_glcn_p m_q8_c m_q8h2_c</t>
-  </si>
-  <si>
-    <t>putida 1 subunit, no inhibition in monomeric enzime, other data from Acinetobacter calcoaceticus--&gt; glucose has competitive inhibition in acinetobacter (2 subunits)</t>
-  </si>
-  <si>
-    <t>orderedBiBiCompInhib</t>
-  </si>
-  <si>
-    <t>m_q8_c m_glcn_p m_pyr_c m_2dhglcn_p m_q8h2_c</t>
-  </si>
-  <si>
-    <t>pyr</t>
-  </si>
-  <si>
-    <t>assuming orderedBiBi mech</t>
-  </si>
-  <si>
-    <t>info from pseudomonas fluorescens. Only one catalytic unit, but 3 subunits in overall</t>
-  </si>
-  <si>
-    <t>m_nadp_c m_g6p_c m_6pgl_c m_nadph_c</t>
-  </si>
-  <si>
-    <t>m_nadph_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>assumed mechansim</t>
-  </si>
-  <si>
-    <t>G6PDHPutida</t>
-  </si>
-  <si>
-    <t>R_G6PDH2_NAD R_G6PDH2_NADH</t>
-  </si>
-  <si>
-    <t>m_6pgl_c m_6pgc_c</t>
-  </si>
-  <si>
-    <t>Laia has 1</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nad_c m_nadh_c m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>R_GND_nad R_GND_nadp</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 2</t>
-  </si>
-  <si>
-    <t>Laia has 1 and used massAction</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_nadp_c m_nadph_c m_ru5p_D_c</t>
-  </si>
-  <si>
-    <t>m_ru5p_D_c m_r5p_c</t>
-  </si>
-  <si>
-    <t>m_ru5p_D_c m_xu5p_D_c</t>
-  </si>
-  <si>
-    <t>pingpongBiBi</t>
-  </si>
-  <si>
-    <t>m_xu5p_D_c  m_r5p_c m_g3p_c m_s7p_c</t>
-  </si>
-  <si>
-    <t>m_xu5p_D_c m_e4p_c  m_g3p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 1</t>
-  </si>
-  <si>
-    <t>m_s7p_c m_g3p_c m_e4pc_m_f6p_c</t>
-  </si>
-  <si>
-    <t>same as e. coli</t>
-  </si>
-  <si>
-    <t>same as in e. coli and some other organisms in brenda</t>
-  </si>
-  <si>
-    <t>m_6pgc_c m_2ddg6p_c</t>
-  </si>
-  <si>
-    <t>randomUniBi</t>
-  </si>
-  <si>
-    <t>m_2ddg6p_c m_g3p_c m_pyr_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 3</t>
-  </si>
-  <si>
-    <t>Laia has 3</t>
-  </si>
-  <si>
-    <t>m_g6p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>Laia has 2 and says Data from E.coli</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>m_fdp_c m_f6p_c m_pi_c</t>
-  </si>
-  <si>
-    <t>assumed mech</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
-  </si>
-  <si>
-    <t>Laia has 4  and says Data from E.coli</t>
-  </si>
-  <si>
-    <t>orderedBiUni</t>
-  </si>
-  <si>
-    <t>m_dhap_c m_g3p_c m_fdp_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
-  </si>
-  <si>
-    <t>Laia has 4 and says data from p.aeuroginosa</t>
-  </si>
-  <si>
-    <t>m_g3p_c m_dhap_c</t>
-  </si>
-  <si>
-    <t>orderedTerBi</t>
-  </si>
-  <si>
-    <t>m_nad_c m_g3p_c m_pi_c m_13dpg_c m_nadh_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 24</t>
-  </si>
-  <si>
-    <t>m_adp_c m_13dpg_c m_3pg_c m_atp_c</t>
-  </si>
-  <si>
-    <t>not much data on it</t>
-  </si>
-  <si>
-    <t>assumed, not much data there</t>
-  </si>
-  <si>
-    <t>m_3pg_c m_2pg_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
-  </si>
-  <si>
-    <t>Laia has 1 and says Data from Bacillus</t>
-  </si>
-  <si>
-    <t>not much data out there</t>
-  </si>
-  <si>
-    <t>m_2pg_c m_pep_c</t>
-  </si>
-  <si>
-    <t>Laia has 2 and says Data from Saccharomyces</t>
-  </si>
-  <si>
-    <t>m_adp_c m_pep_c m_atp_c m_pyr_c</t>
-  </si>
-  <si>
-    <t>m_2ddg6p_c m_r5p_c m_f6p_c</t>
-  </si>
-  <si>
-    <t>assumed subunits, ecocyc says 4</t>
-  </si>
-  <si>
-    <t>PMID: 468836,Pseudomonas citronellolis.</t>
-  </si>
-  <si>
-    <t>massAction</t>
-  </si>
-  <si>
-    <t>m_pyr_c m_pyr_e</t>
-  </si>
-  <si>
-    <t>massAction setting subunits to 1</t>
-  </si>
-  <si>
-    <t>m_pep_c m_pep_e</t>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">putida_v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6p2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgl_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_co2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_ru5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_r5p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_s7p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_e4p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2ddg6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_fdp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_dhap_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_13dpg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_3pg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2pg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pep_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pyr_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pep_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCabcpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCNtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCNt2rpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GNK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2DHGLCNtex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2DHGLCNkt_tpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_2DHGLCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GLCDpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GAD2ktpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_RPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_RPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TKT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TKT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_FBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_FBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_TPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GAPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_ENO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PYK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_pyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_EX_pep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha D-glucose 6 phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho-D-gluconate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Dehydro-D-gluconate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Dehydro-D-gluconate periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Dehydro-D-gluconate cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho-2-Dehydro-D-gluconate cytosol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadph cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadp cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquinone-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubiquinol-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-phospho D-glucono-1,5-lactone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbon dioxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-ribulose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-D-ribose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-xylulose-5-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glyceraldehyde 3-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sedoheptulose-7-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-erythrose-4-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-fructose-6-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dehydro-3-deoxy-D-gluconate 6-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-fructose-1,6-bisphosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehydroxyacetone-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nad cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nadh cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glyceroyl-phosphate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-phospho-D-glycerate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-phospho-D-glycerate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate cytoplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose transport via diffusion (extracellular to periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-glucose transport via ABC system (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate transport via diffusion (extracellular to periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-gluconate transport via proton symport, reversible (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketogluconate transport via diffusion (extracellular to periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ketogluconate transporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dehydroglucokinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphogluconate-2-dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose dehydrogenase (ubiquinone-8 as acceptor) (periplasm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gluconate-2-dehydrogenase periplasm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Phosphogluconolactonase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_NAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphogluconate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribose-5-phosphate isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ribulose 5-phosphate 3-epimerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transketolase 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transketolase 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transaldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Phosphogluconate dehydratase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-dehydro-3-deoxy-phosphogluconate aldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose-6-phosphate-isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-biphosphatase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fructose-biphosphate-aldolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triose phosphate isomerase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyceraldehyde-3-phosphate dehydrogenase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphoglycerate mutase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enolase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate kinase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyruvate exchange reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phosphoenolpyruvate exchange reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.6.3.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3.1.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.2.1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.1.2.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3.1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.1.3.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used D-fbp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.2.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2.1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7.1.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_mean (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vref_std (mmol/L/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanisms_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_comments1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_comments2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general_comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_e m_glc_D_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigg DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diffusion setting subunits to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiTer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_p m_atp_c m_adp_c m_pi_c m_glc_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as Laia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_e m_atp_c m_adp_c m_g6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looks like 1 subunit from metacyc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_e m_glcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_p m_glcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data form E.coli, permease, modelled as massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glcn_c m_atp_c m_adp_c m_6pgc_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c, oxidized_glutathione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2dhglcn_e m_2dhglcn_p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2dhglcn_p m_2dhglcn_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permease,modelled as massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_atp_c  m_2dhglcn_c m_6p2dhglcn_c m_adp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 1 and says no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all assumed, no data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGLCNDHPutida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c m_6p2dhglcn_c m_6pgc_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_PGLCNDH_NAD R_PGLCNDH_NADP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c m_6p2dhglcn_c m_6pgc_c m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingpong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_glc_D_p m_glcn_p m_q8_c m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">putida 1 subunit, no inhibition in monomeric enzime, other data from Acinetobacter calcoaceticus--&gt; glucose has competitive inhibition in acinetobacter (2 subunits)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBiCompInhib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_q8_c m_glcn_p m_pyr_c m_2dhglcn_p m_q8h2_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assuming orderedBiBi mech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info from pseudomonas fluorescens. Only one catalytic unit, but 3 subunits in overall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadp_c m_g6p_c m_6pgl_c m_nadph_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nadph_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed mechansim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6PDHPutida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_G6PDH2_NAD R_G6PDH2_NADH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgl_c m_6pgc_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c m_nad_c m_nadh_c m_ru5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_GND_nad R_GND_nadp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 1 and used massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c m_nadp_c m_nadph_c m_ru5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_ru5p_D_c m_r5p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_ru5p_D_c m_xu5p_D_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingpongBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p_D_c  m_r5p_c m_g3p_c m_s7p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_xu5p_D_c m_e4p_c  m_g3p_c m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_s7p_c m_g3p_c m_e4pc_m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as e. coli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same as in e. coli and some other organisms in brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_6pgc_c m_2ddg6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2ddg6p_c m_g3p_c m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g6p_c m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 2 and says Data from E.coli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_fdp_c m_f6p_c m_pi_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed mech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 4 for fbp1 and 2 for fbp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 4  and says Data from E.coli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_dhap_c m_g3p_c m_fdp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 10 for fba1 and 2 for fba2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 4 and says data from p.aeuroginosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_g3p_c m_dhap_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedTerBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_nad_c m_g3p_c m_pi_c m_13dpg_c m_nadh_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_13dpg_c m_3pg_c m_atp_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not much data on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed, not much data there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_3pg_c m_2pg_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 2 for 23dpg-dependent and 1 for independent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 1 and says Data from Bacillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not much data out there</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2pg_c m_pep_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laia has 2 and says Data from Saccharomyces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_adp_c m_pep_c m_atp_c m_pyr_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_2ddg6p_c m_r5p_c m_f6p_c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assumed subunits, ecocyc says 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMID: 468836,Pseudomonas citronellolis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pyr_c m_pyr_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction setting subunits to 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_pep_c m_pep_e</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -1176,13 +1176,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A1:E1 B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1291,7 +1291,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1306,17 +1306,17 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1956,7 +1956,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1971,13 +1971,13 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,7 +2459,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2474,13 +2474,13 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="1" sqref="A1:E1 F41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3060,7 +3060,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3075,24 +3075,24 @@
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="A1:E1 B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="6.21457489878543"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="5.78542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="5.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="4.92712550607287"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="3" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="3" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4166,7 +4166,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4181,14 +4181,14 @@
   </sheetPr>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="1" sqref="A1:E1 E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4448,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4463,13 +4463,13 @@
   </sheetPr>
   <dimension ref="A1:AO34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8725,7 +8725,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -8740,16 +8740,16 @@
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="1" sqref="A1:E1 G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.2024291497976"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9455,7 +9455,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -9470,17 +9470,17 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="1" sqref="A1:E1 C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10012,7 +10012,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10027,13 +10027,13 @@
   </sheetPr>
   <dimension ref="A2:A35"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10209,7 +10209,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10224,13 +10224,13 @@
   </sheetPr>
   <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="1" sqref="A1:E1 L29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10441,7 +10441,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10456,13 +10456,13 @@
   </sheetPr>
   <dimension ref="A2:A42"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="A1:E1 K19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10673,7 +10673,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10688,16 +10688,16 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="1" sqref="A1:E1 D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11216,7 +11216,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -11231,16 +11231,16 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="1" sqref="A1:E1 D40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11699,7 +11699,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base.xlsx
+++ b/set_up_grasp_models/tests/test_files/test_check_models/model_v1_base.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="258">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -45,7 +45,7 @@
     <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
   </si>
   <si>
-    <t xml:space="preserve">ORACLE</t>
+    <t xml:space="preserve">GRASP</t>
   </si>
   <si>
     <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
@@ -60,6 +60,15 @@
     <t xml:space="preserve">gurobi</t>
   </si>
   <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
@@ -591,13 +600,13 @@
     <t xml:space="preserve">enzyme/rxn</t>
   </si>
   <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -901,7 +910,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -912,6 +921,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -936,32 +949,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1006,29 +1018,29 @@
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -1036,30 +1048,44 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1072,38 +1098,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:C A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1117,7 +1140,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1131,7 +1154,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1145,7 +1168,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1159,7 +1182,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1173,7 +1196,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1187,7 +1210,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1201,7 +1224,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1215,7 +1238,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1229,7 +1252,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1243,7 +1266,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1257,7 +1280,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1271,7 +1294,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1285,7 +1308,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1299,7 +1322,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1313,7 +1336,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1327,7 +1350,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1341,7 +1364,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1355,7 +1378,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1369,7 +1392,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1383,7 +1406,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1397,7 +1420,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1411,7 +1434,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1425,7 +1448,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1439,7 +1462,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1453,7 +1476,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1467,7 +1490,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1481,7 +1504,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1495,7 +1518,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1509,7 +1532,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1523,7 +1546,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1537,7 +1560,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1551,7 +1574,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1575,38 +1598,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="1" sqref="B:C F41"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1620,7 +1640,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -1634,7 +1654,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -1648,7 +1668,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1662,7 +1682,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1676,7 +1696,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1710,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1704,7 +1724,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1718,7 +1738,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1732,7 +1752,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1746,7 +1766,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -1760,7 +1780,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1774,7 +1794,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1788,7 +1808,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1802,7 +1822,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1816,7 +1836,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1830,7 +1850,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1844,7 +1864,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1858,7 +1878,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1872,7 +1892,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1886,7 +1906,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -1900,7 +1920,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1914,7 +1934,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1928,7 +1948,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1942,7 +1962,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1956,7 +1976,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1970,7 +1990,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1984,7 +2004,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -1998,7 +2018,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2012,7 +2032,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2026,7 +2046,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2040,7 +2060,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2054,7 +2074,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2068,7 +2088,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -2082,7 +2102,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -2096,7 +2116,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -2110,7 +2130,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -2124,7 +2144,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -2138,7 +2158,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -2152,7 +2172,7 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -2176,307 +2196,307 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="1" sqref="B:C I18"/>
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="39.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="5.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="4.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="4.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="4" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="5" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="39.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="5.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="5" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="5" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="5" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="5" width="14.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="5" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="6"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>199</v>
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>201</v>
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="0"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>203</v>
+      <c r="A4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K4" s="0"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>204</v>
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>206</v>
+      <c r="A6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K6" s="0"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>207</v>
+      <c r="A7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="7" t="s">
-        <v>21</v>
+      <c r="E7" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="0"/>
       <c r="H7" s="0"/>
-      <c r="I7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="J7" s="7" t="n">
+      <c r="I7" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J7" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K7" s="0"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>209</v>
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="H8" s="0"/>
       <c r="I8" s="0"/>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>210</v>
+      <c r="A9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K9" s="0"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>212</v>
+      <c r="A10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="0"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
       <c r="N10" s="0"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>215</v>
+      <c r="A11" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K11" s="0"/>
@@ -2486,131 +2506,131 @@
       <c r="O11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>215</v>
+      <c r="C12" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="E12" s="0"/>
       <c r="F12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K12" s="0"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
       <c r="N12" s="0"/>
       <c r="O12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>218</v>
+      <c r="A13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
       <c r="F13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K13" s="0"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>220</v>
+      <c r="A14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="7" t="s">
-        <v>221</v>
+      <c r="E14" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
       <c r="N14" s="0"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>222</v>
+      <c r="A15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="7" t="s">
-        <v>223</v>
+      <c r="E15" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="F15" s="0"/>
       <c r="H15" s="0"/>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="7"/>
+      <c r="K15" s="8"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>224</v>
+      <c r="A16" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="C16" s="0"/>
-      <c r="D16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>223</v>
+      <c r="D16" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="F16" s="0"/>
-      <c r="H16" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="7" t="n">
+      <c r="H16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K16" s="0"/>
@@ -2620,483 +2640,483 @@
       <c r="O16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>224</v>
+      <c r="A17" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="C17" s="0"/>
-      <c r="D17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>223</v>
+      <c r="D17" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="F17" s="0"/>
-      <c r="H17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="7" t="n">
+      <c r="H17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K17" s="0"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>226</v>
+      <c r="A18" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="D18" s="0"/>
       <c r="F18" s="0"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K18" s="0"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>228</v>
+      <c r="A19" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="F19" s="0"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K19" s="0"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>228</v>
+      <c r="A20" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>231</v>
       </c>
       <c r="F20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K20" s="0"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>230</v>
+      <c r="A21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K21" s="0"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>231</v>
+      <c r="A22" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="F22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K22" s="0"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>233</v>
+      <c r="A23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="F23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K23" s="0"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>234</v>
+      <c r="A24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="F24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K24" s="0"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>235</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="F25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="8" t="n">
         <v>2</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
+      <c r="A26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K26" s="0"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>238</v>
+      <c r="A27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="8" t="n">
         <v>3</v>
       </c>
       <c r="K27" s="0"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>239</v>
+      <c r="A28" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K28" s="0"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>241</v>
+      <c r="A29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>243</v>
+      <c r="A30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="8" t="n">
         <v>4</v>
       </c>
       <c r="K30" s="0"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>244</v>
+      <c r="A31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K31" s="0"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>246</v>
+      <c r="A32" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="8" t="n">
         <v>4</v>
       </c>
       <c r="K32" s="0"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>247</v>
+      <c r="A33" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K33" s="0"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>248</v>
+      <c r="A34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="8" t="n">
         <v>1</v>
       </c>
       <c r="K34" s="0"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="0"/>
-      <c r="O34" s="7"/>
+      <c r="O34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>249</v>
+      <c r="A35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="8" t="n">
         <v>2</v>
       </c>
       <c r="K35" s="0"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I36" s="7" t="n">
+      <c r="A36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="I36" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="J37" s="7" t="n">
+      <c r="A37" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="J38" s="7" t="n">
+      <c r="A38" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3110,149 +3130,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:C A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
+      <c r="A1" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -3377,7 +3394,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3502,7 +3519,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -3627,7 +3644,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -3752,7 +3769,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -3877,7 +3894,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4002,7 +4019,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4127,7 +4144,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -4252,7 +4269,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -4377,7 +4394,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -4502,7 +4519,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -4627,7 +4644,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -4752,7 +4769,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -4877,7 +4894,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5002,7 +5019,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5127,7 +5144,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5252,7 +5269,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -5377,7 +5394,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -5502,7 +5519,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -5627,7 +5644,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -5752,7 +5769,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -5877,7 +5894,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -6002,7 +6019,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6127,7 +6144,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -6252,7 +6269,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -6377,7 +6394,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -6502,7 +6519,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -6627,7 +6644,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -6752,7 +6769,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -6877,7 +6894,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7002,7 +7019,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -7127,7 +7144,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -7252,7 +7269,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -7387,42 +7404,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B:C D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -7430,10 +7446,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -7441,10 +7457,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -7452,10 +7468,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1</v>
@@ -7463,10 +7479,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -7474,10 +7490,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -7485,10 +7501,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
@@ -7496,10 +7512,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -7507,10 +7523,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>28</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -7518,10 +7534,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -7529,10 +7545,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -7540,10 +7556,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -7551,10 +7567,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -7562,10 +7578,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -7573,10 +7589,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -7584,10 +7600,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -7595,10 +7611,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -7606,10 +7622,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -7617,10 +7633,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -7628,10 +7644,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>112</v>
+        <v>39</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
@@ -7639,10 +7655,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -7650,10 +7666,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
@@ -7661,10 +7677,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -7672,10 +7688,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -7683,10 +7699,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -7694,10 +7710,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -7705,10 +7721,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -7716,10 +7732,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -7727,10 +7743,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>121</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -7738,10 +7754,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -7749,10 +7765,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -7760,10 +7776,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -7771,10 +7787,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -7782,10 +7798,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -7793,10 +7809,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>54</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -7804,10 +7820,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>128</v>
+        <v>55</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -7815,10 +7831,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>129</v>
+        <v>56</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -7826,10 +7842,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>57</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -7837,10 +7853,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -7848,10 +7864,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -7869,45 +7885,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B:C D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -7915,10 +7930,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -7926,10 +7941,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -7937,10 +7952,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -7948,10 +7963,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -7959,10 +7974,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -7970,10 +7985,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -7981,10 +7996,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -7992,10 +8007,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -8003,10 +8018,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -8014,10 +8029,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -8025,10 +8040,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -8036,10 +8051,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -8047,10 +8062,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -8058,10 +8073,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -8069,10 +8084,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -8080,10 +8095,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -8091,10 +8106,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -8102,10 +8117,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -8113,10 +8128,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -8124,10 +8139,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -8135,10 +8150,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -8146,10 +8161,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -8157,10 +8172,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -8168,10 +8183,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>80</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -8179,10 +8194,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -8190,10 +8205,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>165</v>
+        <v>82</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -8201,10 +8216,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>166</v>
+        <v>83</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -8212,10 +8227,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>84</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -8223,10 +8238,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>168</v>
+        <v>85</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -8234,10 +8249,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>169</v>
+        <v>86</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -8245,10 +8260,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>170</v>
+        <v>87</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -8256,10 +8271,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>171</v>
+        <v>88</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -8267,10 +8282,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -8278,10 +8293,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -8289,10 +8304,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -8300,10 +8315,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8318,224 +8333,221 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="1" sqref="B:C L29"/>
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8550,224 +8562,221 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="1" sqref="B:C K19"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -8782,39 +8791,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="1" sqref="B:C E10"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-5</v>
@@ -8825,7 +8833,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">-26.4-0.6</f>
@@ -8838,20 +8846,20 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <f aca="false">-17.3-0.9</f>
         <v>-18.2</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <f aca="false">-17.3+0.9</f>
         <v>-16.4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-5</v>
@@ -8862,7 +8870,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -8873,7 +8881,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">-10.1-6.4</f>
@@ -8886,7 +8894,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-5</v>
@@ -8897,7 +8905,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-5</v>
@@ -8908,7 +8916,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">-7.6-6.9</f>
@@ -8921,7 +8929,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">-21.8-3.9</f>
@@ -8934,7 +8942,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">-116.1-8.5</f>
@@ -8944,11 +8952,11 @@
         <f aca="false">-116.1+8.5</f>
         <v>-107.6</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">-66.5-6.2</f>
@@ -8961,7 +8969,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">-2.3-2.6</f>
@@ -8974,7 +8982,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">-20.9-3.3</f>
@@ -8987,7 +8995,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">11.2-6.3</f>
@@ -9000,7 +9008,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">-1.9-1.5</f>
@@ -9013,7 +9021,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">-3.4-2.3</f>
@@ -9026,7 +9034,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">-3.8-3.8</f>
@@ -9039,7 +9047,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">-10-3.8</f>
@@ -9052,7 +9060,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">-0.7-2.8</f>
@@ -9065,7 +9073,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">-43.1-5.1</f>
@@ -9078,7 +9086,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">15.5-4.1</f>
@@ -9091,7 +9099,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">2.5-0.8</f>
@@ -9104,7 +9112,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">-11.4-1.4</f>
@@ -9117,7 +9125,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">-19.8-1</f>
@@ -9130,7 +9138,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">-5.5-1.1</f>
@@ -9143,7 +9151,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">7.8-0.8</f>
@@ -9156,7 +9164,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">-18.5-0.9</f>
@@ -9169,7 +9177,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">4.2-0.7</f>
@@ -9182,7 +9190,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">-4.1-0.6</f>
@@ -9195,7 +9203,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">-27.7-0.8</f>
@@ -9208,7 +9216,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-5</v>
@@ -9219,7 +9227,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-5</v>
@@ -9240,39 +9248,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:C"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -9283,7 +9290,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -9294,7 +9301,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9.35806519989021E-005</v>
@@ -9305,7 +9312,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -9316,7 +9323,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1.33019869888442E-005</v>
@@ -9327,7 +9334,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -9338,7 +9345,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.000188126472700168</v>
@@ -9349,7 +9356,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -9360,7 +9367,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -9371,7 +9378,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -9382,7 +9389,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>5.24113154902746E-006</v>
@@ -9393,7 +9400,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -9404,7 +9411,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -9415,7 +9422,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -9426,7 +9433,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -9437,7 +9444,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>4.78647895557551E-007</v>
@@ -9448,7 +9455,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1.08578172251465E-005</v>
@@ -9459,7 +9466,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -9470,7 +9477,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -9481,7 +9488,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -9492,7 +9499,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -9503,7 +9510,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1.21731956073935E-005</v>
@@ -9514,7 +9521,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1.56386773727797E-006</v>
@@ -9525,7 +9532,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -9536,7 +9543,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2.13E-013</v>
@@ -9547,7 +9554,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2.82926534545702E-005</v>
@@ -9558,7 +9565,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -9569,7 +9576,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>3.80512459944155E-005</v>
@@ -9580,7 +9587,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -9591,7 +9598,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.60939376063701E-005</v>
@@ -9602,7 +9609,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>2.72093271819032E-006</v>
@@ -9613,7 +9620,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.9530546875E-005</v>
@@ -9624,9 +9631,9 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" s="5" t="n">
         <v>4.33178204203296E-005</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -9635,7 +9642,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>6.51619851996748E-007</v>
@@ -9646,7 +9653,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9657,7 +9664,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>2.13E-013</v>
@@ -9668,7 +9675,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>2.13E-013</v>
@@ -9679,7 +9686,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>6.8444481038267E-005</v>
@@ -9690,7 +9697,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -9701,7 +9708,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -9722,39 +9729,39 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="B:C D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>184</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
         <f aca="false">B3+B12</f>
@@ -9766,7 +9773,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>600</v>
@@ -9777,7 +9784,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="n">
         <f aca="false">B14-B24</f>
@@ -9789,7 +9796,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -9800,7 +9807,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">4.79*10^3</f>
@@ -9813,7 +9820,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="n">
         <f aca="false">4.79*10^3</f>
@@ -9826,7 +9833,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -9837,7 +9844,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -9850,7 +9857,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -9863,7 +9870,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -9876,7 +9883,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">5.51*10^3</f>
@@ -9889,7 +9896,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">0.72*10^3</f>
@@ -9902,7 +9909,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="n">
         <f aca="false">1.17*10^3</f>
@@ -9915,7 +9922,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="n">
         <f aca="false">1.17*10^3</f>
@@ -9928,7 +9935,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="n">
         <f aca="false">0.59*10^3</f>
@@ -9941,7 +9948,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B17" s="0" t="n">
         <f aca="false">0.44*10^3</f>
@@ -9954,7 +9961,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -9967,7 +9974,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -9980,7 +9987,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="n">
         <f aca="false">0.01*10^3</f>
@@ -9993,7 +10000,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="n">
         <f aca="false">0.15*10^3</f>
@@ -10006,7 +10013,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -10019,7 +10026,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="n">
         <f aca="false">6.11*10^ 3</f>
@@ -10032,7 +10039,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">0.57*10^3</f>
@@ -10045,7 +10052,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B25" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -10058,7 +10065,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -10071,7 +10078,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="n">
         <f aca="false">0.46*10^3</f>
@@ -10084,7 +10091,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="n">
         <f aca="false">5.11*10^3</f>
@@ -10097,7 +10104,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="n">
         <f aca="false">5.11*10^3</f>
@@ -10110,7 +10117,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" s="0" t="n">
         <f aca="false">4.36*10^3</f>
@@ -10123,7 +10130,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="n">
         <f aca="false">4.36*10^3</f>
@@ -10136,7 +10143,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="n">
         <f aca="false">3.89*10^3</f>
@@ -10149,7 +10156,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="n">
         <f aca="false">B23+B32</f>
@@ -10161,7 +10168,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="n">
         <f aca="false">B31-B32</f>
